--- a/excel_data/credentials_business.xlsx
+++ b/excel_data/credentials_business.xlsx
@@ -34,7 +34,7 @@
     <t>Amey</t>
   </si>
   <si>
-    <t>Finance &amp; Accounts</t>
+    <t>R&amp;D - Electronics</t>
   </si>
   <si>
     <t>Krupa Anna John</t>

--- a/excel_data/credentials_business.xlsx
+++ b/excel_data/credentials_business.xlsx
@@ -34,7 +34,7 @@
     <t>Amey</t>
   </si>
   <si>
-    <t>R&amp;D - Electronics</t>
+    <t>R&amp;D (Electronics Division)</t>
   </si>
   <si>
     <t>Krupa Anna John</t>

--- a/excel_data/credentials_business.xlsx
+++ b/excel_data/credentials_business.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -25,22 +25,13 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Angel</t>
-  </si>
-  <si>
-    <t>Appliance Division</t>
-  </si>
-  <si>
-    <t>Amey</t>
-  </si>
-  <si>
-    <t>R&amp;D (Electronics Division)</t>
-  </si>
-  <si>
-    <t>Krupa Anna John</t>
+    <t>Laya Wilson</t>
   </si>
   <si>
     <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Sreelakshmi K p</t>
   </si>
 </sst>
 </file>
@@ -119,8 +110,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C4" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C3" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
   <tableColumns count="3">
     <tableColumn name="Name" id="1"/>
     <tableColumn name="Emp_ID" id="2"/>
@@ -418,7 +409,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -445,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>1020</v>
+        <v>7199</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -456,21 +447,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>1727</v>
+        <v>7066</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1234</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
